--- a/R Scripts/Analysis csvs/attention_taskperf_reactiontime with stats.xlsx
+++ b/R Scripts/Analysis csvs/attention_taskperf_reactiontime with stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\GitHub\STISIM-Task-Analysis\R Scripts\Analysis csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B750ED9B-3142-467E-84F0-0529CA2C82E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E298B0A-54DC-4A27-A862-C2A3D86983B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attention_taskperf_reactiontime" sheetId="1" r:id="rId1"/>
+    <sheet name="attention_taskperf_RT CV measur" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -123,11 +131,38 @@
   <si>
     <t>R2's, Day 1 vs 2</t>
   </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Within S1</t>
+  </si>
+  <si>
+    <t>Within S2</t>
+  </si>
+  <si>
+    <t>Between R2's</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -622,6 +657,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,7 +706,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -905,13 +986,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>41649</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>52854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>419621</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>125424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,16 +1028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>187324</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150533</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>237003</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>483210</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>21222</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,8 +1060,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38735559" y="4632886"/>
-          <a:ext cx="3321475" cy="2560101"/>
+          <a:off x="39390356" y="4730563"/>
+          <a:ext cx="3987615" cy="3069429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,13 +1074,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>451382</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>5520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1037,13 +1118,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>188224</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>167824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1081,13 +1162,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>419260</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>40261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1124,15 +1205,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>481854</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>441378</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>168079</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>298877</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38570648" y="8370794"/>
-          <a:ext cx="4654789" cy="3451403"/>
+          <a:off x="39030089" y="8956676"/>
+          <a:ext cx="4657964" cy="3445052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,13 +1250,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>555781</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>148774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1213,14 +1294,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>539906</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>51467</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1257,13 +1338,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>321581</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>53519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1301,13 +1382,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>544586</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>15417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1345,9 +1426,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hayden" refreshedDate="43570.364847800927" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="110">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hayden" refreshedDate="43570.364847800927" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="110" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:H111" sheet="attention_taskperf_reactiontime"/>
+    <worksheetSource ref="B1:H115" sheet="attention_taskperf_reactiontime"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="ID" numFmtId="0">
@@ -2400,8 +2481,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K48:O65" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K52:O69" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
@@ -2523,7 +2604,7 @@
     <dataField name="Average of mean_RT" fld="5" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2532,7 +2613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2555,8 +2636,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K26:O43" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K28:O45" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
@@ -2678,6 +2759,471 @@
     <dataField name="Average of mean_RT" fld="5" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K3:O20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of mean_RT" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDCCC89B-8877-4E6D-BD98-04398D0366AA}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K28:O45" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of mean_RT" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{989C5CC1-9DBF-4DB3-BF55-41C15BB47363}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K52:O69" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of mean_RT" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
     <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
@@ -2709,8 +3255,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DB18F3-CDE0-4CC9-9406-8F432512A733}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:O20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3160,11 +3706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW51" sqref="AW51"/>
+    <sheetView tabSelected="1" topLeftCell="P37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4008,62 +4554,36 @@
       <c r="H21">
         <v>0.21400058022434901</v>
       </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>60</v>
-      </c>
-      <c r="G22">
-        <v>0.82118333333333204</v>
-      </c>
-      <c r="H22">
-        <v>0.13510228286805701</v>
+      <c r="K22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="e">
+        <f>_xlfn.STDEV.S(L6:O16,L18:O19)/av</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>0.88069491525423804</v>
-      </c>
-      <c r="H23">
-        <v>0.238950814029636</v>
+      <c r="K23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4072,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -4081,21 +4601,18 @@
         <v>60</v>
       </c>
       <c r="G24">
-        <v>0.79936666666665701</v>
+        <v>0.82118333333333204</v>
       </c>
       <c r="H24">
-        <v>0.15903575620410501</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" t="s">
-        <v>8</v>
+        <v>0.13510228286805701</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4104,33 +4621,33 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G25">
-        <v>0.879857142857144</v>
+        <v>0.88069491525423804</v>
       </c>
       <c r="H25">
-        <v>0.20297419706782199</v>
+        <v>0.238950814029636</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -4139,30 +4656,30 @@
         <v>60</v>
       </c>
       <c r="G26">
-        <v>0.91079999999999095</v>
+        <v>0.79936666666665701</v>
       </c>
       <c r="H26">
-        <v>0.172111887140068</v>
+        <v>0.15903575620410501</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -4171,33 +4688,15 @@
         <v>56</v>
       </c>
       <c r="G27">
-        <v>0.93419642857142904</v>
+        <v>0.879857142857144</v>
       </c>
       <c r="H27">
-        <v>0.16500748408843799</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>32</v>
+        <v>0.20297419706782199</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -4206,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -4215,30 +4714,21 @@
         <v>60</v>
       </c>
       <c r="G28">
-        <v>0.86240000000000405</v>
+        <v>0.91079999999999095</v>
       </c>
       <c r="H28">
-        <v>0.122900841938338</v>
+        <v>0.172111887140068</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -4247,121 +4737,124 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>0.89368421052632496</v>
+        <v>0.93419642857142904</v>
       </c>
       <c r="H29">
-        <v>0.13501457036381301</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.87296491228068795</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0.78903389830509396</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0.81354385964912201</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.80542372881356405</v>
+        <v>0.16500748408843799</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>0.85168965517241901</v>
+        <v>0.86240000000000405</v>
       </c>
       <c r="H30">
-        <v>0.160055276295584</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.79573076923077302</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.80186206896552303</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.75510714285714797</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.77624561403508896</v>
+        <v>0.122900841938338</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31">
-        <v>0.86326785714285104</v>
+        <v>0.89368421052632496</v>
       </c>
       <c r="H31">
-        <v>0.138813215387564</v>
+        <v>0.13501457036381301</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L31" s="3">
-        <v>0.76518333333333</v>
+        <v>0.87296491228068795</v>
       </c>
       <c r="M31" s="3">
-        <v>0.77148333333333496</v>
+        <v>0.78903389830509396</v>
       </c>
       <c r="N31" s="3">
-        <v>0.75521666666666298</v>
+        <v>0.81354385964912201</v>
       </c>
       <c r="O31" s="3">
-        <v>0.74315000000000597</v>
+        <v>0.80542372881356405</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -4370,39 +4863,39 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32">
-        <v>0.79977966101694897</v>
+        <v>0.85168965517241901</v>
       </c>
       <c r="H32">
-        <v>0.111449395938494</v>
+        <v>0.160055276295584</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L32" s="3">
-        <v>0.83316949152542097</v>
+        <v>0.79573076923077302</v>
       </c>
       <c r="M32" s="3">
-        <v>0.85413559322033294</v>
+        <v>0.80186206896552303</v>
       </c>
       <c r="N32" s="3">
-        <v>0.82118333333333204</v>
+        <v>0.75510714285714797</v>
       </c>
       <c r="O32" s="3">
-        <v>0.79936666666665701</v>
+        <v>0.77624561403508896</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -4411,121 +4904,121 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33">
-        <v>0.82768421052631103</v>
+        <v>0.86326785714285104</v>
       </c>
       <c r="H33">
-        <v>0.120274560588725</v>
+        <v>0.138813215387564</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L33" s="3">
-        <v>0.91079999999999095</v>
+        <v>0.76518333333333</v>
       </c>
       <c r="M33" s="3">
-        <v>0.86240000000000405</v>
+        <v>0.77148333333333496</v>
       </c>
       <c r="N33" s="3">
-        <v>0.85168965517241901</v>
+        <v>0.75521666666666298</v>
       </c>
       <c r="O33" s="3">
-        <v>0.79977966101694897</v>
+        <v>0.74315000000000597</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G34">
-        <v>0.87606896551724001</v>
+        <v>0.79977966101694897</v>
       </c>
       <c r="H34">
-        <v>0.17612285007407399</v>
+        <v>0.111449395938494</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" s="3">
-        <v>0.87606896551724001</v>
+        <v>0.83316949152542097</v>
       </c>
       <c r="M34" s="3">
-        <v>0.79165000000001395</v>
+        <v>0.85413559322033294</v>
       </c>
       <c r="N34" s="3">
-        <v>0.83213559322034703</v>
+        <v>0.82118333333333204</v>
       </c>
       <c r="O34" s="3">
-        <v>0.78852631578946597</v>
+        <v>0.79936666666665701</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G35">
-        <v>0.86301886792451898</v>
+        <v>0.82768421052631103</v>
       </c>
       <c r="H35">
-        <v>0.130799242906247</v>
+        <v>0.120274560588725</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35" s="3">
-        <v>0.775644067796598</v>
+        <v>0.91079999999999095</v>
       </c>
       <c r="M35" s="3">
-        <v>0.79135087719299102</v>
+        <v>0.86240000000000405</v>
       </c>
       <c r="N35" s="3">
-        <v>0.776233333333329</v>
+        <v>0.85168965517241901</v>
       </c>
       <c r="O35" s="3">
-        <v>0.77486666666667003</v>
+        <v>0.79977966101694897</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -4534,39 +5027,39 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36">
+        <v>0.87606896551724001</v>
+      </c>
+      <c r="H36">
+        <v>0.17612285007407399</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.87606896551724001</v>
+      </c>
+      <c r="M36" s="3">
         <v>0.79165000000001395</v>
       </c>
-      <c r="H36">
-        <v>0.107482095473885</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0.86844642857142196</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.82737288135593301</v>
-      </c>
       <c r="N36" s="3">
-        <v>0.83294827586205999</v>
+        <v>0.83213559322034703</v>
       </c>
       <c r="O36" s="3">
-        <v>0.787389830508477</v>
+        <v>0.78852631578946597</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -4575,89 +5068,89 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37">
-        <v>0.81096610169492001</v>
+        <v>0.86301886792451898</v>
       </c>
       <c r="H37">
-        <v>0.16689899548277501</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1.46234615384615</v>
-      </c>
-      <c r="M37" s="5">
-        <v>1.2846206896551799</v>
-      </c>
-      <c r="N37" s="5">
-        <v>1.5799545454545501</v>
-      </c>
-      <c r="O37" s="5">
-        <v>1.1948035714285701</v>
+        <v>0.130799242906247</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.775644067796598</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.79135087719299102</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.776233333333329</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.77486666666667003</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38">
-        <v>0.83213559322034703</v>
+        <v>0.79165000000001395</v>
       </c>
       <c r="H38">
-        <v>0.18472854806418801</v>
+        <v>0.107482095473885</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L38" s="3">
-        <v>0.73589655172414603</v>
+        <v>0.86844642857142196</v>
       </c>
       <c r="M38" s="3">
-        <v>0.76044067796609005</v>
+        <v>0.82737288135593301</v>
       </c>
       <c r="N38" s="3">
-        <v>0.75813559322034896</v>
+        <v>0.83294827586205999</v>
       </c>
       <c r="O38" s="3">
-        <v>0.73308333333333697</v>
+        <v>0.787389830508477</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -4666,30 +5159,30 @@
         <v>59</v>
       </c>
       <c r="G39">
-        <v>0.82598305084745904</v>
+        <v>0.81096610169492001</v>
       </c>
       <c r="H39">
-        <v>0.15399300157916701</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0.82925457924528001</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0.79686666666667205</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0.81574137931034396</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.78641666666666799</v>
+        <v>0.16689899548277501</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1.46234615384615</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1.2846206896551799</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1.5799545454545501</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1.1948035714285701</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -4698,37 +5191,39 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G40">
-        <v>0.78852631578946597</v>
+        <v>0.83213559322034703</v>
       </c>
       <c r="H40">
-        <v>0.11944067643801499</v>
+        <v>0.18472854806418801</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L40" s="3">
-        <v>0.87032758620690298</v>
+        <v>0.73589655172414603</v>
       </c>
       <c r="M40" s="3">
-        <v>0.85522033898305205</v>
-      </c>
-      <c r="N40" s="3"/>
+        <v>0.76044067796609005</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.75813559322034896</v>
+      </c>
       <c r="O40" s="3">
-        <v>0.81189830508473104</v>
+        <v>0.73308333333333697</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -4737,101 +5232,87 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>0.77675862068965495</v>
+        <v>0.82598305084745904</v>
       </c>
       <c r="H41">
-        <v>0.160871672770001</v>
+        <v>0.15399300157916701</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L41" s="3">
-        <v>0.68355932203389602</v>
+        <v>0.82925457924528001</v>
       </c>
       <c r="M41" s="3">
-        <v>0.69879661016948402</v>
+        <v>0.79686666666667205</v>
       </c>
       <c r="N41" s="3">
-        <v>0.65462711864407397</v>
+        <v>0.81574137931034396</v>
       </c>
       <c r="O41" s="3">
-        <v>0.68786440677966199</v>
-      </c>
-      <c r="P41" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>31</v>
+        <v>0.78641666666666799</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G42">
-        <v>0.775644067796598</v>
+        <v>0.78852631578946597</v>
       </c>
       <c r="H42">
-        <v>0.125230513345684</v>
+        <v>0.11944067643801499</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L42" s="3">
-        <v>0.70038983050846904</v>
+        <v>0.87032758620690298</v>
       </c>
       <c r="M42" s="3">
-        <v>0.72257627118643897</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0.69710000000000405</v>
-      </c>
+        <v>0.85522033898305205</v>
+      </c>
+      <c r="N42" s="3"/>
       <c r="O42" s="3">
-        <v>0.71198305084746305</v>
+        <v>0.81189830508473104</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4840,30 +5321,42 @@
         <v>58</v>
       </c>
       <c r="G43">
-        <v>0.84031034482759404</v>
+        <v>0.77675862068965495</v>
       </c>
       <c r="H43">
-        <v>0.17603689873339201</v>
+        <v>0.160871672770001</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L43" s="3">
-        <v>0.85569871370145045</v>
+        <v>0.68355932203389602</v>
       </c>
       <c r="M43" s="3">
-        <v>0.82912927907143874</v>
+        <v>0.69879661016948402</v>
       </c>
       <c r="N43" s="3">
-        <v>0.84181665359413393</v>
+        <v>0.65462711864407397</v>
       </c>
       <c r="O43" s="3">
-        <v>0.80005698697409344</v>
+        <v>0.68786440677966199</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -4872,24 +5365,39 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G44">
-        <v>0.79135087719299102</v>
+        <v>0.775644067796598</v>
       </c>
       <c r="H44">
-        <v>0.16510337575808401</v>
+        <v>0.125230513345684</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.70038983050846904</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.72257627118643897</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.69710000000000405</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.71198305084746305</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -4898,120 +5406,71 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G45">
-        <v>0.83561403508771703</v>
+        <v>0.84031034482759404</v>
       </c>
       <c r="H45">
-        <v>0.118611724665263</v>
+        <v>0.17603689873339201</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.85569871370145045</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.82912927907143874</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.84181665359413393</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.80005698697409344</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G46">
-        <v>0.776233333333329</v>
+        <v>0.79135087719299102</v>
       </c>
       <c r="H46">
-        <v>0.13177515090289099</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>56</v>
-      </c>
-      <c r="G47">
-        <v>0.78655357142856897</v>
-      </c>
-      <c r="H47">
-        <v>0.12942332509219201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>60</v>
-      </c>
-      <c r="G48">
-        <v>0.77486666666667003</v>
-      </c>
-      <c r="H48">
-        <v>0.115649450842731</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>27</v>
+        <v>0.16510337575808401</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -5023,39 +5482,21 @@
         <v>57</v>
       </c>
       <c r="G49">
-        <v>0.79245614035087297</v>
+        <v>0.83561403508771703</v>
       </c>
       <c r="H49">
-        <v>0.13189485397947501</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>32</v>
+        <v>0.118611724665263</v>
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5064,39 +5505,30 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G50">
-        <v>0.86844642857142196</v>
+        <v>0.776233333333329</v>
       </c>
       <c r="H50">
-        <v>0.17917253438493899</v>
+        <v>0.13177515090289099</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5105,39 +5537,24 @@
         <v>9</v>
       </c>
       <c r="F51">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G51">
-        <v>0.794316666666669</v>
+        <v>0.78655357142856897</v>
       </c>
       <c r="H51">
-        <v>0.156566928523692</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0.89578181818181901</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0.834440677966102</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0.86391379310345495</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0.83960344827585698</v>
+        <v>0.12942332509219201</v>
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -5146,39 +5563,30 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <v>0.82737288135593301</v>
+        <v>0.77486666666667003</v>
       </c>
       <c r="H52">
-        <v>0.183545437229475</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0.84103389830509001</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0.85459649122805703</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.78752542372880996</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0.79717241379311699</v>
+        <v>0.115649450842731</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5187,39 +5595,42 @@
         <v>9</v>
       </c>
       <c r="F53">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53">
-        <v>0.83929310344827102</v>
+        <v>0.79245614035087297</v>
       </c>
       <c r="H53">
-        <v>0.220067295020339</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0.78816666666666502</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0.739672413793102</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.75663793103447596</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.74389830508473498</v>
+        <v>0.13189485397947501</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="P53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5228,39 +5639,39 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G54">
-        <v>0.83294827586205999</v>
+        <v>0.86844642857142196</v>
       </c>
       <c r="H54">
-        <v>0.17177039166607899</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0.90014285714285602</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0.90912068965517301</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.88069491525423804</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0.879857142857144</v>
+        <v>0.17917253438493899</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -5269,39 +5680,39 @@
         <v>9</v>
       </c>
       <c r="F55">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G55">
-        <v>0.74132758620689698</v>
+        <v>0.794316666666669</v>
       </c>
       <c r="H55">
-        <v>0.121968846745912</v>
+        <v>0.156566928523692</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L55" s="3">
-        <v>0.93419642857142904</v>
+        <v>0.89578181818181901</v>
       </c>
       <c r="M55" s="3">
-        <v>0.89368421052632496</v>
+        <v>0.834440677966102</v>
       </c>
       <c r="N55" s="3">
-        <v>0.86326785714285104</v>
+        <v>0.86391379310345495</v>
       </c>
       <c r="O55" s="3">
-        <v>0.82768421052631103</v>
+        <v>0.83960344827585698</v>
       </c>
     </row>
     <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -5313,36 +5724,36 @@
         <v>59</v>
       </c>
       <c r="G56">
-        <v>0.787389830508477</v>
+        <v>0.82737288135593301</v>
       </c>
       <c r="H56">
-        <v>0.14760023093024099</v>
+        <v>0.183545437229475</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L56" s="3">
-        <v>0.86301886792451898</v>
+        <v>0.84103389830509001</v>
       </c>
       <c r="M56" s="3">
-        <v>0.81096610169492001</v>
+        <v>0.85459649122805703</v>
       </c>
       <c r="N56" s="3">
-        <v>0.82598305084745904</v>
+        <v>0.78752542372880996</v>
       </c>
       <c r="O56" s="3">
-        <v>0.77675862068965495</v>
+        <v>0.79717241379311699</v>
       </c>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -5351,39 +5762,39 @@
         <v>9</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G57">
-        <v>0.79184999999999806</v>
+        <v>0.83929310344827102</v>
       </c>
       <c r="H57">
-        <v>0.18484870817848101</v>
+        <v>0.220067295020339</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L57" s="3">
-        <v>0.84031034482759404</v>
+        <v>0.78816666666666502</v>
       </c>
       <c r="M57" s="3">
-        <v>0.83561403508771703</v>
+        <v>0.739672413793102</v>
       </c>
       <c r="N57" s="3">
-        <v>0.78655357142856897</v>
+        <v>0.75663793103447596</v>
       </c>
       <c r="O57" s="3">
-        <v>0.79245614035087297</v>
+        <v>0.74389830508473498</v>
       </c>
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -5392,39 +5803,39 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G58">
-        <v>1.46234615384615</v>
+        <v>0.83294827586205999</v>
       </c>
       <c r="H58">
-        <v>0.30408002588428501</v>
+        <v>0.17177039166607899</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L58" s="3">
-        <v>0.794316666666669</v>
+        <v>0.90014285714285602</v>
       </c>
       <c r="M58" s="3">
-        <v>0.83929310344827102</v>
+        <v>0.90912068965517301</v>
       </c>
       <c r="N58" s="3">
-        <v>0.74132758620689698</v>
+        <v>0.88069491525423804</v>
       </c>
       <c r="O58" s="3">
-        <v>0.79184999999999806</v>
+        <v>0.879857142857144</v>
       </c>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -5433,39 +5844,39 @@
         <v>9</v>
       </c>
       <c r="F59">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G59">
-        <v>1.5201224489795899</v>
+        <v>0.74132758620689698</v>
       </c>
       <c r="H59">
-        <v>0.30227916406396399</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="5">
-        <v>1.5201224489795899</v>
-      </c>
-      <c r="M59" s="5">
-        <v>1.3119259259259199</v>
-      </c>
-      <c r="N59" s="5">
-        <v>1.6029111111111101</v>
-      </c>
-      <c r="O59" s="5">
-        <v>1.18687272727271</v>
+        <v>0.121968846745912</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.93419642857142904</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.89368421052632496</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.86326785714285104</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.82768421052631103</v>
       </c>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -5474,39 +5885,39 @@
         <v>8</v>
       </c>
       <c r="F60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60">
-        <v>1.2846206896551799</v>
+        <v>0.787389830508477</v>
       </c>
       <c r="H60">
-        <v>0.31406133201365199</v>
+        <v>0.14760023093024099</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L60" s="3">
-        <v>0.73305263157895595</v>
+        <v>0.86301886792451898</v>
       </c>
       <c r="M60" s="3">
-        <v>0.73513793103448699</v>
+        <v>0.81096610169492001</v>
       </c>
       <c r="N60" s="3">
-        <v>0.771120689655173</v>
+        <v>0.82598305084745904</v>
       </c>
       <c r="O60" s="3">
-        <v>0.75740350877192897</v>
+        <v>0.77675862068965495</v>
       </c>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -5515,39 +5926,39 @@
         <v>9</v>
       </c>
       <c r="F61">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G61">
-        <v>1.3119259259259199</v>
+        <v>0.79184999999999806</v>
       </c>
       <c r="H61">
-        <v>0.296542647150984</v>
+        <v>0.18484870817848101</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L61" s="3">
-        <v>0.888177166037738</v>
+        <v>0.84031034482759404</v>
       </c>
       <c r="M61" s="3">
-        <v>0.83959999999999801</v>
+        <v>0.83561403508771703</v>
       </c>
       <c r="N61" s="3">
-        <v>0.82222641509434102</v>
+        <v>0.78655357142856897</v>
       </c>
       <c r="O61" s="3">
-        <v>0.82157142857142995</v>
+        <v>0.79245614035087297</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -5556,37 +5967,39 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G62">
-        <v>1.5799545454545501</v>
+        <v>1.46234615384615</v>
       </c>
       <c r="H62">
-        <v>0.29628293788402299</v>
+        <v>0.30408002588428501</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L62" s="3">
-        <v>0.94977777777777195</v>
+        <v>0.794316666666669</v>
       </c>
       <c r="M62" s="3">
-        <v>0.89850000000000496</v>
-      </c>
-      <c r="N62" s="3"/>
+        <v>0.83929310344827102</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.74132758620689698</v>
+      </c>
       <c r="O62" s="3">
-        <v>0.87269642857142704</v>
+        <v>0.79184999999999806</v>
       </c>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5595,51 +6008,39 @@
         <v>9</v>
       </c>
       <c r="F63">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G63">
+        <v>1.5201224489795899</v>
+      </c>
+      <c r="H63">
+        <v>0.30227916406396399</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1.5201224489795899</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1.3119259259259199</v>
+      </c>
+      <c r="N63" s="5">
         <v>1.6029111111111101</v>
       </c>
-      <c r="H63">
-        <v>0.29996437835654799</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="3">
-        <v>0.69206779661018003</v>
-      </c>
-      <c r="M63" s="3">
-        <v>0.70675862068964801</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.67750000000000898</v>
-      </c>
-      <c r="O63" s="3">
-        <v>0.66179310344827802</v>
-      </c>
-      <c r="P63" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW63" t="s">
-        <v>31</v>
+      <c r="O63" s="5">
+        <v>1.18687272727271</v>
       </c>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5648,39 +6049,39 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G64">
-        <v>1.1948035714285701</v>
+        <v>1.2846206896551799</v>
       </c>
       <c r="H64">
-        <v>0.28888440089059803</v>
+        <v>0.31406133201365199</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L64" s="3">
-        <v>0.69578571428571201</v>
+        <v>0.73305263157895595</v>
       </c>
       <c r="M64" s="3">
-        <v>0.72588135593219305</v>
+        <v>0.73513793103448699</v>
       </c>
       <c r="N64" s="3">
-        <v>0.70460714285715798</v>
+        <v>0.771120689655173</v>
       </c>
       <c r="O64" s="3">
-        <v>0.70405172413793105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.75740350877192897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -5689,39 +6090,39 @@
         <v>9</v>
       </c>
       <c r="F65">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G65">
-        <v>1.18687272727271</v>
+        <v>1.3119259259259199</v>
       </c>
       <c r="H65">
-        <v>0.35882648517723498</v>
+        <v>0.296542647150984</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L65" s="3">
-        <v>0.8811393631111849</v>
+        <v>0.888177166037738</v>
       </c>
       <c r="M65" s="3">
-        <v>0.85251368264156557</v>
+        <v>0.83959999999999801</v>
       </c>
       <c r="N65" s="3">
-        <v>0.85263611442034981</v>
+        <v>0.82222641509434102</v>
       </c>
       <c r="O65" s="3">
-        <v>0.81811922873938536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.82157142857142995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5730,24 +6131,37 @@
         <v>8</v>
       </c>
       <c r="F66">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G66">
-        <v>0.73589655172414603</v>
+        <v>1.5799545454545501</v>
       </c>
       <c r="H66">
-        <v>0.11344396401024399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.29628293788402299</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.94977777777777195</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.89850000000000496</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3">
+        <v>0.87269642857142704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -5756,24 +6170,51 @@
         <v>9</v>
       </c>
       <c r="F67">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G67">
-        <v>0.73305263157895595</v>
+        <v>1.6029111111111101</v>
       </c>
       <c r="H67">
-        <v>0.13934917871670899</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.29996437835654799</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0.69206779661018003</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.70675862068964801</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.67750000000000898</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0.66179310344827802</v>
+      </c>
+      <c r="P67" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -5782,24 +6223,39 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G68">
-        <v>0.76044067796609005</v>
+        <v>1.1948035714285701</v>
       </c>
       <c r="H68">
-        <v>0.14438994988266601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.28888440089059803</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.69578571428571201</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.72588135593219305</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.70460714285715798</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0.70405172413793105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -5808,24 +6264,39 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G69">
-        <v>0.73513793103448699</v>
+        <v>1.18687272727271</v>
       </c>
       <c r="H69">
-        <v>9.5181350133248993E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.35882648517723498</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.8811393631111849</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.85251368264156557</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.85263611442034981</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.81811922873938536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5834,24 +6305,24 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70">
-        <v>0.75813559322034896</v>
+        <v>0.73589655172414603</v>
       </c>
       <c r="H70">
-        <v>0.121386310883486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.11344396401024399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5860,24 +6331,24 @@
         <v>9</v>
       </c>
       <c r="F71">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G71">
-        <v>0.771120689655173</v>
+        <v>0.73305263157895595</v>
       </c>
       <c r="H71">
-        <v>0.14837684095859499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.13934917871670899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5886,24 +6357,24 @@
         <v>8</v>
       </c>
       <c r="F72">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G72">
-        <v>0.73308333333333697</v>
+        <v>0.76044067796609005</v>
       </c>
       <c r="H72">
-        <v>9.9788639628311096E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.14438994988266601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -5912,24 +6383,24 @@
         <v>9</v>
       </c>
       <c r="F73">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G73">
-        <v>0.75740350877192897</v>
+        <v>0.73513793103448699</v>
       </c>
       <c r="H73">
-        <v>0.14403965967363599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.5181350133248993E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -5938,24 +6409,24 @@
         <v>8</v>
       </c>
       <c r="F74">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G74">
-        <v>0.87296491228068795</v>
+        <v>0.75813559322034896</v>
       </c>
       <c r="H74">
-        <v>0.15058694272178599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.121386310883486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5964,24 +6435,24 @@
         <v>9</v>
       </c>
       <c r="F75">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G75">
-        <v>0.89578181818181901</v>
+        <v>0.771120689655173</v>
       </c>
       <c r="H75">
-        <v>0.168896493715012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.14837684095859499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5990,24 +6461,24 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G76">
-        <v>0.78903389830509396</v>
+        <v>0.73308333333333697</v>
       </c>
       <c r="H76">
-        <v>0.12867761990950899</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.9788639628311096E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -6016,24 +6487,24 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G77">
-        <v>0.834440677966102</v>
+        <v>0.75740350877192897</v>
       </c>
       <c r="H77">
-        <v>0.13674520368395701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.14403965967363599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6045,21 +6516,21 @@
         <v>57</v>
       </c>
       <c r="G78">
-        <v>0.81354385964912201</v>
+        <v>0.87296491228068795</v>
       </c>
       <c r="H78">
-        <v>0.121724670315453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.15058694272178599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -6068,24 +6539,24 @@
         <v>9</v>
       </c>
       <c r="F79">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G79">
-        <v>0.86391379310345495</v>
+        <v>0.89578181818181901</v>
       </c>
       <c r="H79">
-        <v>0.129043075153257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.168896493715012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -6097,21 +6568,21 @@
         <v>59</v>
       </c>
       <c r="G80">
-        <v>0.80542372881356405</v>
+        <v>0.78903389830509396</v>
       </c>
       <c r="H80">
-        <v>0.16370075762783101</v>
+        <v>0.12867761990950899</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -6120,24 +6591,24 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G81">
-        <v>0.83960344827585698</v>
+        <v>0.834440677966102</v>
       </c>
       <c r="H81">
-        <v>0.11423167282159601</v>
+        <v>0.13674520368395701</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -6146,24 +6617,24 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G82">
-        <v>0.82925457924528001</v>
+        <v>0.81354385964912201</v>
       </c>
       <c r="H82">
-        <v>9.83848534226201E-2</v>
+        <v>0.121724670315453</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -6172,24 +6643,24 @@
         <v>9</v>
       </c>
       <c r="F83">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G83">
-        <v>0.888177166037738</v>
+        <v>0.86391379310345495</v>
       </c>
       <c r="H83">
-        <v>0.17742226224489199</v>
+        <v>0.129043075153257</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -6198,24 +6669,24 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G84">
-        <v>0.79686666666667205</v>
+        <v>0.80542372881356405</v>
       </c>
       <c r="H84">
-        <v>0.112917619088283</v>
+        <v>0.16370075762783101</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -6224,24 +6695,24 @@
         <v>9</v>
       </c>
       <c r="F85">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G85">
-        <v>0.83959999999999801</v>
+        <v>0.83960344827585698</v>
       </c>
       <c r="H85">
-        <v>0.13853955178001201</v>
+        <v>0.11423167282159601</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -6250,24 +6721,24 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G86">
-        <v>0.81574137931034396</v>
+        <v>0.82925457924528001</v>
       </c>
       <c r="H86">
-        <v>0.16715499271947401</v>
+        <v>9.83848534226201E-2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -6279,21 +6750,21 @@
         <v>53</v>
       </c>
       <c r="G87">
-        <v>0.82222641509434102</v>
+        <v>0.888177166037738</v>
       </c>
       <c r="H87">
-        <v>0.124399115985821</v>
+        <v>0.17742226224489199</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -6305,21 +6776,21 @@
         <v>60</v>
       </c>
       <c r="G88">
-        <v>0.78641666666666799</v>
+        <v>0.79686666666667205</v>
       </c>
       <c r="H88">
-        <v>0.14498033667569801</v>
+        <v>0.112917619088283</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -6328,24 +6799,24 @@
         <v>9</v>
       </c>
       <c r="F89">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89">
-        <v>0.82157142857142995</v>
+        <v>0.83959999999999801</v>
       </c>
       <c r="H89">
-        <v>0.15479157331337701</v>
+        <v>0.13853955178001201</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -6357,21 +6828,21 @@
         <v>58</v>
       </c>
       <c r="G90">
-        <v>0.87032758620690298</v>
+        <v>0.81574137931034396</v>
       </c>
       <c r="H90">
-        <v>0.181911621874524</v>
+        <v>0.16715499271947401</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6380,24 +6851,24 @@
         <v>9</v>
       </c>
       <c r="F91">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G91">
-        <v>0.94977777777777195</v>
+        <v>0.82222641509434102</v>
       </c>
       <c r="H91">
-        <v>0.18014477057295</v>
+        <v>0.124399115985821</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -6406,24 +6877,24 @@
         <v>8</v>
       </c>
       <c r="F92">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G92">
-        <v>0.85522033898305205</v>
+        <v>0.78641666666666799</v>
       </c>
       <c r="H92">
-        <v>0.15170809854916101</v>
+        <v>0.14498033667569801</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -6432,79 +6903,79 @@
         <v>9</v>
       </c>
       <c r="F93">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G93">
-        <v>0.89850000000000496</v>
+        <v>0.82157142857142995</v>
       </c>
       <c r="H93">
-        <v>0.153875348275862</v>
+        <v>0.15479157331337701</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G94">
-        <v>0.81189830508473104</v>
+        <v>0.87032758620690298</v>
       </c>
       <c r="H94">
-        <v>0.157660120568793</v>
+        <v>0.181911621874524</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G95">
-        <v>0.87269642857142704</v>
+        <v>0.94977777777777195</v>
       </c>
       <c r="H95">
-        <v>0.17575281398423001</v>
+        <v>0.18014477057295</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -6513,47 +6984,47 @@
         <v>59</v>
       </c>
       <c r="G96">
-        <v>0.68355932203389602</v>
+        <v>0.85522033898305205</v>
       </c>
       <c r="H96">
-        <v>0.10667599529390299</v>
+        <v>0.15170809854916101</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G97">
-        <v>0.69206779661018003</v>
+        <v>0.89850000000000496</v>
       </c>
       <c r="H97">
-        <v>0.14152176199254901</v>
+        <v>0.153875348275862</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -6565,21 +7036,21 @@
         <v>59</v>
       </c>
       <c r="G98">
-        <v>0.69879661016948402</v>
+        <v>0.81189830508473104</v>
       </c>
       <c r="H98">
-        <v>0.118747744756962</v>
+        <v>0.157660120568793</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -6588,24 +7059,24 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G99">
-        <v>0.70675862068964801</v>
+        <v>0.87269642857142704</v>
       </c>
       <c r="H99">
-        <v>0.103320708398792</v>
+        <v>0.17575281398423001</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
         <v>21</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -6617,21 +7088,21 @@
         <v>59</v>
       </c>
       <c r="G100">
-        <v>0.65462711864407397</v>
+        <v>0.68355932203389602</v>
       </c>
       <c r="H100">
-        <v>6.9464676785154E-2</v>
+        <v>0.10667599529390299</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6640,24 +7111,24 @@
         <v>9</v>
       </c>
       <c r="F101">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G101">
-        <v>0.67750000000000898</v>
+        <v>0.69206779661018003</v>
       </c>
       <c r="H101">
-        <v>0.101009857083711</v>
+        <v>0.14152176199254901</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -6669,21 +7140,21 @@
         <v>59</v>
       </c>
       <c r="G102">
-        <v>0.68786440677966199</v>
+        <v>0.69879661016948402</v>
       </c>
       <c r="H102">
-        <v>8.0487406945413301E-2</v>
+        <v>0.118747744756962</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -6695,21 +7166,21 @@
         <v>58</v>
       </c>
       <c r="G103">
-        <v>0.66179310344827802</v>
+        <v>0.70675862068964801</v>
       </c>
       <c r="H103">
-        <v>7.3431614832216996E-2</v>
+        <v>0.103320708398792</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -6721,21 +7192,21 @@
         <v>59</v>
       </c>
       <c r="G104">
-        <v>0.70038983050846904</v>
+        <v>0.65462711864407397</v>
       </c>
       <c r="H104">
-        <v>0.121701162682397</v>
+        <v>6.9464676785154E-2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -6744,24 +7215,24 @@
         <v>9</v>
       </c>
       <c r="F105">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G105">
-        <v>0.69578571428571201</v>
+        <v>0.67750000000000898</v>
       </c>
       <c r="H105">
-        <v>0.16710690255975699</v>
+        <v>0.101009857083711</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -6773,21 +7244,21 @@
         <v>59</v>
       </c>
       <c r="G106">
-        <v>0.72257627118643897</v>
+        <v>0.68786440677966199</v>
       </c>
       <c r="H106">
-        <v>0.145659167992745</v>
+        <v>8.0487406945413301E-2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6796,24 +7267,24 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G107">
-        <v>0.72588135593219305</v>
+        <v>0.66179310344827802</v>
       </c>
       <c r="H107">
-        <v>0.12315438653279299</v>
+        <v>7.3431614832216996E-2</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -6822,24 +7293,24 @@
         <v>8</v>
       </c>
       <c r="F108">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G108">
-        <v>0.69710000000000405</v>
+        <v>0.70038983050846904</v>
       </c>
       <c r="H108">
-        <v>0.15655471778588601</v>
+        <v>0.121701162682397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -6851,21 +7322,21 @@
         <v>56</v>
       </c>
       <c r="G109">
-        <v>0.70460714285715798</v>
+        <v>0.69578571428571201</v>
       </c>
       <c r="H109">
-        <v>0.111983550508175</v>
+        <v>0.16710690255975699</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -6877,21 +7348,21 @@
         <v>59</v>
       </c>
       <c r="G110">
-        <v>0.71198305084746305</v>
+        <v>0.72257627118643897</v>
       </c>
       <c r="H110">
-        <v>0.156165086336638</v>
+        <v>0.145659167992745</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -6900,12 +7371,116 @@
         <v>9</v>
       </c>
       <c r="F111">
+        <v>59</v>
+      </c>
+      <c r="G111">
+        <v>0.72588135593219305</v>
+      </c>
+      <c r="H111">
+        <v>0.12315438653279299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>60</v>
+      </c>
+      <c r="G112">
+        <v>0.69710000000000405</v>
+      </c>
+      <c r="H112">
+        <v>0.15655471778588601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>56</v>
+      </c>
+      <c r="G113">
+        <v>0.70460714285715798</v>
+      </c>
+      <c r="H113">
+        <v>0.111983550508175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>59</v>
+      </c>
+      <c r="G114">
+        <v>0.71198305084746305</v>
+      </c>
+      <c r="H114">
+        <v>0.156165086336638</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115">
         <v>58</v>
       </c>
-      <c r="G111">
+      <c r="G115">
         <v>0.70405172413793105</v>
       </c>
-      <c r="H111">
+      <c r="H115">
         <v>0.103388794807331</v>
       </c>
     </row>
@@ -6914,4 +7489,4480 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E03C1-7D20-477B-864C-549EFDABC06F}">
+  <dimension ref="A1:V115"/>
+  <sheetViews>
+    <sheetView topLeftCell="G36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.90625" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.26953125" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>0.79573076923077302</v>
+      </c>
+      <c r="H2">
+        <v>0.173731719634726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>0.84103389830509001</v>
+      </c>
+      <c r="H3">
+        <v>0.20219911372138799</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>0.80186206896552303</v>
+      </c>
+      <c r="H4">
+        <v>0.136285362161538</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>0.85459649122805703</v>
+      </c>
+      <c r="H5">
+        <v>0.19515038703241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>0.75510714285714797</v>
+      </c>
+      <c r="H6">
+        <v>0.165680160503344</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.88437336523125354</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.81173728813559798</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.83872882637628843</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.82251358854471057</v>
+      </c>
+      <c r="P6" s="6">
+        <f>(_xlfn.STDEV.S(L6:O6)/AVERAGE(L6:O6)*100)</f>
+        <v>3.8134053833935173</v>
+      </c>
+      <c r="R6" s="6">
+        <f>(_xlfn.STDEV.S(L6:M6)/AVERAGE(L6:M6)*100)</f>
+        <v>6.0563811177262794</v>
+      </c>
+      <c r="T6" s="6">
+        <f>(_xlfn.STDEV.S(N6:O6)/AVERAGE(N6:O6)*100)</f>
+        <v>1.3804011414922386</v>
+      </c>
+      <c r="V6">
+        <f>(_xlfn.STDEV.S(M6,O6)/AVERAGE(M6,O6)*100)</f>
+        <v>0.93253676092443694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>0.78752542372880996</v>
+      </c>
+      <c r="H7">
+        <v>0.19588009667529599</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.81838233376793146</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.82822928009679009</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.77131628329297897</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.78670901391410297</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" ref="P7:P19" si="0">(_xlfn.STDEV.S(L7:O7)/AVERAGE(L7:O7)*100)</f>
+        <v>3.324997655404859</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" ref="R7:T19" si="1">(_xlfn.STDEV.S(L7:M7)/AVERAGE(L7:M7)*100)</f>
+        <v>0.84571765005028721</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3971922307918647</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V19" si="2">(_xlfn.STDEV.S(M7,O7)/AVERAGE(M7,O7)*100)</f>
+        <v>3.6359608145189619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>0.77624561403508896</v>
+      </c>
+      <c r="H8">
+        <v>0.148844031587931</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.77667499999999756</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.75557787356321848</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.75592729885056942</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.74352415254237048</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8161737791268795</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9471878858096332</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1698076459133111</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>1.1371164502411426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>0.79717241379311699</v>
+      </c>
+      <c r="H9">
+        <v>0.16998081810574001</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.86665617433413855</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.88162814143775292</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.85093912429378504</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.83961190476190051</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.133755111667595</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.211105009769927</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94756722575340091</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>3.4521583365470914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>0.76518333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.108377164970328</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.92249821428570999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.87804210526316451</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.85747875615763502</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.81373193577162994</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2066773587931641</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4917536490253629</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7019477555620348</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>5.3759137856147134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>0.78816666666666502</v>
+      </c>
+      <c r="H11">
+        <v>0.104736823800836</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.8695439167208795</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.80130805084746703</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.82905932203390309</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.78264246823956052</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.6026732859436894</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7755018895474945</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0729212162449961</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>1.6665369123343439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>0.77148333333333496</v>
+      </c>
+      <c r="H12">
+        <v>0.183753841575588</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.80797720631209602</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.81348245614035397</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.78139345238094893</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.78366140350877145</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0665969022721362</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48015989245140189</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20493641048400213</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>2.6405471755744587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>0.739672413793102</v>
+      </c>
+      <c r="H13">
+        <v>0.13382646368915699</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.83138154761904548</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.83333299240210201</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.78713793103447849</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.78961991525423758</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1372910450309122</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16577975455093419</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.22261222631243502</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>3.809083200377223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>0.75521666666666298</v>
+      </c>
+      <c r="H14">
+        <v>0.104466212470951</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1.4912343014128699</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.2982733077905499</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.5914328282828301</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1.1908381493506401</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>13.032677151288235</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8">
+        <f t="shared" si="1"/>
+        <v>9.7826603264796237</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="8">
+        <f t="shared" si="1"/>
+        <v>20.362014789884753</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9">
+        <f t="shared" si="2"/>
+        <v>6.1040359484715703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>0.75663793103447596</v>
+      </c>
+      <c r="H15">
+        <v>0.103531620439027</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.73447459165155093</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.74778930450028858</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.76462814143776092</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.74524342105263297</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6680506560703301</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2703437990139914</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8156600304625297</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0.24114829087636844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>0.74315000000000597</v>
+      </c>
+      <c r="H16">
+        <v>0.13110350743216201</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.85871587264150895</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.81823333333333503</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.81898389720234244</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.80399404761904902</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8513317731127428</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4139946472403953</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3061698494589933</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>1.2413420715304655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>0.74389830508473498</v>
+      </c>
+      <c r="H17">
+        <v>0.113538341528653</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.91005268199233746</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.87686016949152856</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3">
+        <v>0.8422973668280791</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8657958965447459</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6269496751843286</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>2.8432056543762876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>0.83316949152542097</v>
+      </c>
+      <c r="H18">
+        <v>0.16496009470866599</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.68781355932203803</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.70277761542956596</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.66606355932204142</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.67482875511397</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.342850804905579</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5218254998028522</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.92444849093006898</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>2.8691546552294249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>0.90014285714285602</v>
+      </c>
+      <c r="H19">
+        <v>0.173296218137557</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.69808777239709052</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.72422881355931601</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.70085357142858107</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.70801738749269705</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>1.65676253968822</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5992114070239571</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.71909820924807277</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>1.6007316753209992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <v>0.85413559322033294</v>
+      </c>
+      <c r="H20">
+        <v>0.137070389370993</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.86841903840631773</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.84082148085650221</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.8472263840072416</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.80908810785673957</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>0.90912068965517301</v>
+      </c>
+      <c r="H21">
+        <v>0.21400058022434901</v>
+      </c>
+      <c r="P21" s="6">
+        <f>AVERAGE(P6:P19)</f>
+        <v>3.6799313816601864</v>
+      </c>
+      <c r="R21" s="6">
+        <f>AVERAGE(R6:R19)</f>
+        <v>2.9420408716911761</v>
+      </c>
+      <c r="T21" s="6">
+        <f>AVERAGE(T6:T19)</f>
+        <v>2.9403674786568237</v>
+      </c>
+      <c r="V21" s="6">
+        <f>AVERAGE(V6:V19)</f>
+        <v>2.6821051237098206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>0.82118333333333204</v>
+      </c>
+      <c r="H24">
+        <v>0.13510228286805701</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>0.88069491525423804</v>
+      </c>
+      <c r="H25">
+        <v>0.238950814029636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>0.79936666666665701</v>
+      </c>
+      <c r="H26">
+        <v>0.15903575620410501</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>0.879857142857144</v>
+      </c>
+      <c r="H27">
+        <v>0.20297419706782199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>0.91079999999999095</v>
+      </c>
+      <c r="H28">
+        <v>0.172111887140068</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>0.93419642857142904</v>
+      </c>
+      <c r="H29">
+        <v>0.16500748408843799</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30">
+        <v>0.86240000000000405</v>
+      </c>
+      <c r="H30">
+        <v>0.122900841938338</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>0.89368421052632496</v>
+      </c>
+      <c r="H31">
+        <v>0.13501457036381301</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.87296491228068795</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.78903389830509396</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.81354385964912201</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.80542372881356405</v>
+      </c>
+      <c r="P31" s="6">
+        <f>(_xlfn.STDEV.S(L31:O31)/AVERAGE(L31:O31)*100)</f>
+        <v>4.4617764587928246</v>
+      </c>
+      <c r="R31" s="6">
+        <f>(_xlfn.STDEV.S(L31:M31)/AVERAGE(L31:M31)*100)</f>
+        <v>7.1417847902174811</v>
+      </c>
+      <c r="T31" s="6">
+        <f>(_xlfn.STDEV.S(N31:O31)/AVERAGE(N31:O31)*100)</f>
+        <v>0.70931618629835913</v>
+      </c>
+      <c r="V31">
+        <f>(_xlfn.STDEV.S(M31,O31)/AVERAGE(M31,O31)*100)</f>
+        <v>1.453705648607355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>58</v>
+      </c>
+      <c r="G32">
+        <v>0.85168965517241901</v>
+      </c>
+      <c r="H32">
+        <v>0.160055276295584</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.79573076923077302</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.80186206896552303</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.75510714285714797</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.77624561403508896</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" ref="P32:P44" si="3">(_xlfn.STDEV.S(L32:O32)/AVERAGE(L32:O32)*100)</f>
+        <v>2.7009473961937682</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" ref="R32:R44" si="4">(_xlfn.STDEV.S(L32:M32)/AVERAGE(L32:M32)*100)</f>
+        <v>0.54275200993312378</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" ref="T32:T41" si="5">(_xlfn.STDEV.S(N32:O32)/AVERAGE(N32:O32)*100)</f>
+        <v>1.9521506389125607</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:V44" si="6">(_xlfn.STDEV.S(M32,O32)/AVERAGE(M32,O32)*100)</f>
+        <v>2.2956062107027306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>0.86326785714285104</v>
+      </c>
+      <c r="H33">
+        <v>0.138813215387564</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.76518333333333</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.77148333333333496</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.75521666666666298</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.74315000000000597</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6308615065072807</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="4"/>
+        <v>0.57979688348964431</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1388963751165715</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>2.6454841172053536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>59</v>
+      </c>
+      <c r="G34">
+        <v>0.79977966101694897</v>
+      </c>
+      <c r="H34">
+        <v>0.111449395938494</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.83316949152542097</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.85413559322033294</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.82118333333333204</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.79936666666665701</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7679358672876977</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7572723294143247</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="5"/>
+        <v>1.903886081008612</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>4.6842971193833254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>0.82768421052631103</v>
+      </c>
+      <c r="H35">
+        <v>0.120274560588725</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.91079999999999095</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.86240000000000405</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.85168965517241901</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.79977966101694897</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="3"/>
+        <v>5.3197028862445865</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8601362744664711</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="5"/>
+        <v>4.4452426113956296</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>5.3278556312050727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>0.87606896551724001</v>
+      </c>
+      <c r="H36">
+        <v>0.17612285007407399</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.87606896551724001</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.79165000000001395</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.83213559322034703</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.78852631578946597</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="3"/>
+        <v>4.999483548053453</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="4"/>
+        <v>7.158666923173068</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="5"/>
+        <v>3.8054100762893595</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>0.27956099145306929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>53</v>
+      </c>
+      <c r="G37">
+        <v>0.86301886792451898</v>
+      </c>
+      <c r="H37">
+        <v>0.130799242906247</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.775644067796598</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.79135087719299102</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.776233333333329</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.77486666666667003</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0140295123840466</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4175401740135003</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="5"/>
+        <v>0.12460566921748059</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>1.4884390857918606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>0.79165000000001395</v>
+      </c>
+      <c r="H38">
+        <v>0.107482095473885</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.86844642857142196</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.82737288135593301</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.83294827586205999</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.787389830508477</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="3"/>
+        <v>4.003991335041257</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4252922576641995</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="5"/>
+        <v>3.9762918027021303</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="6"/>
+        <v>3.5017264368359635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>59</v>
+      </c>
+      <c r="G39">
+        <v>0.81096610169492001</v>
+      </c>
+      <c r="H39">
+        <v>0.16689899548277501</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1.46234615384615</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1.2846206896551799</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1.5799545454545501</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1.1948035714285701</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="3"/>
+        <v>12.558103777751652</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="8">
+        <f t="shared" si="4"/>
+        <v>9.1497923403239625</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="8">
+        <f t="shared" si="5"/>
+        <v>19.630025684566416</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9">
+        <f t="shared" si="6"/>
+        <v>5.1229871677475236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>59</v>
+      </c>
+      <c r="G40">
+        <v>0.83213559322034703</v>
+      </c>
+      <c r="H40">
+        <v>0.18472854806418801</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.73589655172414603</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.76044067796609005</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.75813559322034896</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.73308333333333697</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9271977414675525</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3197067826174602</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="5"/>
+        <v>2.3758581030209522</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>2.5904590430048109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>59</v>
+      </c>
+      <c r="G41">
+        <v>0.82598305084745904</v>
+      </c>
+      <c r="H41">
+        <v>0.15399300157916701</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.82925457924528001</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.79686666666667205</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.81574137931034396</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.78641666666666799</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3704604271767282</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8167287858006138</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="5"/>
+        <v>2.588471620356946</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="6"/>
+        <v>0.9334104272853585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>57</v>
+      </c>
+      <c r="G42">
+        <v>0.78852631578946597</v>
+      </c>
+      <c r="H42">
+        <v>0.11944067643801499</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.87032758620690298</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.85522033898305205</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3">
+        <v>0.81189830508473104</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5857442463457421</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2381501320365438</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="V42">
+        <f t="shared" si="6"/>
+        <v>3.6749998631831939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>58</v>
+      </c>
+      <c r="G43">
+        <v>0.77675862068965495</v>
+      </c>
+      <c r="H43">
+        <v>0.160871672770001</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.68355932203389602</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.69879661016948402</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.65462711864407397</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.68786440677966199</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7668306109373519</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5588445083595752</v>
+      </c>
+      <c r="T43" s="6">
+        <f t="shared" ref="T43:T44" si="7">(_xlfn.STDEV.S(N43:O43)/AVERAGE(N43:O43)*100)</f>
+        <v>3.501297607298838</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="6"/>
+        <v>1.1149423046825611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>59</v>
+      </c>
+      <c r="G44">
+        <v>0.775644067796598</v>
+      </c>
+      <c r="H44">
+        <v>0.125230513345684</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.70038983050846904</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.72257627118643897</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.69710000000000405</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.71198305084746305</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6411805227592595</v>
+      </c>
+      <c r="R44" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2049973832966594</v>
+      </c>
+      <c r="T44" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4937240459535788</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>1.0442981090071799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>58</v>
+      </c>
+      <c r="G45">
+        <v>0.84031034482759404</v>
+      </c>
+      <c r="H45">
+        <v>0.17603689873339201</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.85569871370145045</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.82912927907143874</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.84181665359413393</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.80005698697409344</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>0.79135087719299102</v>
+      </c>
+      <c r="H46">
+        <v>0.16510337575808401</v>
+      </c>
+      <c r="P46" s="6">
+        <f>AVERAGE(P31:P44)</f>
+        <v>3.6963032740673714</v>
+      </c>
+      <c r="R46" s="6">
+        <f>AVERAGE(R31:R44)</f>
+        <v>3.2265329696290443</v>
+      </c>
+      <c r="T46" s="6">
+        <f>AVERAGE(T31:T44)</f>
+        <v>3.6650135770874952</v>
+      </c>
+      <c r="V46" s="6">
+        <f>AVERAGE(V31:V44)</f>
+        <v>2.582698011149668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>0.83561403508771703</v>
+      </c>
+      <c r="H49">
+        <v>0.118611724665263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>0.776233333333329</v>
+      </c>
+      <c r="H50">
+        <v>0.13177515090289099</v>
+      </c>
+      <c r="K50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>0.78655357142856897</v>
+      </c>
+      <c r="H51">
+        <v>0.12942332509219201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>0.77486666666667003</v>
+      </c>
+      <c r="H52">
+        <v>0.115649450842731</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>57</v>
+      </c>
+      <c r="G53">
+        <v>0.79245614035087297</v>
+      </c>
+      <c r="H53">
+        <v>0.13189485397947501</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="P53" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" t="s">
+        <v>29</v>
+      </c>
+      <c r="T53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>56</v>
+      </c>
+      <c r="G54">
+        <v>0.86844642857142196</v>
+      </c>
+      <c r="H54">
+        <v>0.17917253438493899</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55">
+        <v>0.794316666666669</v>
+      </c>
+      <c r="H55">
+        <v>0.156566928523692</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.89578181818181901</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.834440677966102</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.86391379310345495</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.83960344827585698</v>
+      </c>
+      <c r="P55" s="6">
+        <f>(_xlfn.STDEV.S(L55:O55)/AVERAGE(L55:O55)*100)</f>
+        <v>3.2639380395296942</v>
+      </c>
+      <c r="R55" s="6">
+        <f>(_xlfn.STDEV.S(L55:M55)/AVERAGE(L55:M55)*100)</f>
+        <v>5.0137755472276702</v>
+      </c>
+      <c r="T55" s="6">
+        <f>(_xlfn.STDEV.S(N55:O55)/AVERAGE(N55:O55)*100)</f>
+        <v>2.0181785382646726</v>
+      </c>
+      <c r="V55">
+        <f>(_xlfn.STDEV.S(M55,O55)/AVERAGE(M55,O55)*100)</f>
+        <v>0.43614500221467567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>59</v>
+      </c>
+      <c r="G56">
+        <v>0.82737288135593301</v>
+      </c>
+      <c r="H56">
+        <v>0.183545437229475</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.84103389830509001</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.85459649122805703</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.78752542372880996</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.79717241379311699</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" ref="P56:P68" si="8">(_xlfn.STDEV.S(L56:O56)/AVERAGE(L56:O56)*100)</f>
+        <v>3.9918421391292322</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" ref="R56:R68" si="9">(_xlfn.STDEV.S(L56:M56)/AVERAGE(L56:M56)*100)</f>
+        <v>1.1311664954227556</v>
+      </c>
+      <c r="T56" s="6">
+        <f t="shared" ref="T56:T65" si="10">(_xlfn.STDEV.S(N56:O56)/AVERAGE(N56:O56)*100)</f>
+        <v>0.86091517650807181</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V56:V68" si="11">(_xlfn.STDEV.S(M56,O56)/AVERAGE(M56,O56)*100)</f>
+        <v>4.9165418278783974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>58</v>
+      </c>
+      <c r="G57">
+        <v>0.83929310344827102</v>
+      </c>
+      <c r="H57">
+        <v>0.220067295020339</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.78816666666666502</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.739672413793102</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0.75663793103447596</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0.74389830508473498</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="8"/>
+        <v>2.8971867739256494</v>
+      </c>
+      <c r="R57" s="6">
+        <f t="shared" si="9"/>
+        <v>4.4887731298446267</v>
+      </c>
+      <c r="T57" s="6">
+        <f t="shared" si="10"/>
+        <v>1.200674223254985</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="11"/>
+        <v>0.40283302317143033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>58</v>
+      </c>
+      <c r="G58">
+        <v>0.83294827586205999</v>
+      </c>
+      <c r="H58">
+        <v>0.17177039166607899</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.90014285714285602</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.90912068965517301</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.88069491525423804</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.879857142857144</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="8"/>
+        <v>1.6287265712489216</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" si="9"/>
+        <v>0.70175362357257154</v>
+      </c>
+      <c r="T58" s="6">
+        <f t="shared" si="10"/>
+        <v>6.7296452876444937E-2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="11"/>
+        <v>2.3133268625690167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <v>0.74132758620689698</v>
+      </c>
+      <c r="H59">
+        <v>0.121968846745912</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.93419642857142904</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.89368421052632496</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.86326785714285104</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.82768421052631103</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="8"/>
+        <v>5.1430765664010218</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" si="9"/>
+        <v>3.1343911071503081</v>
+      </c>
+      <c r="T59" s="6">
+        <f t="shared" si="10"/>
+        <v>2.9760084041393502</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="11"/>
+        <v>5.4223194741522391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>0.787389830508477</v>
+      </c>
+      <c r="H60">
+        <v>0.14760023093024099</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0.86301886792451898</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.81096610169492001</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.82598305084745904</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0.77675862068965495</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="8"/>
+        <v>4.3646701291248924</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" si="9"/>
+        <v>4.3975142726442966</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" si="10"/>
+        <v>4.3434233953928691</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="11"/>
+        <v>3.0469188323533696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>0.79184999999999806</v>
+      </c>
+      <c r="H61">
+        <v>0.18484870817848101</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.84031034482759404</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.83561403508771703</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.78655357142856897</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.79245614035087297</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="8"/>
+        <v>3.4588493934504658</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" si="9"/>
+        <v>0.39629383084543091</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="10"/>
+        <v>0.52865368467918972</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="11"/>
+        <v>3.7488850899116222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>52</v>
+      </c>
+      <c r="G62">
+        <v>1.46234615384615</v>
+      </c>
+      <c r="H62">
+        <v>0.30408002588428501</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.794316666666669</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.83929310344827102</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.74132758620689698</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.79184999999999806</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="8"/>
+        <v>5.0573590512588549</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" si="9"/>
+        <v>3.8936034815268266</v>
+      </c>
+      <c r="T62" s="6">
+        <f t="shared" si="10"/>
+        <v>4.6602222360161285</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="11"/>
+        <v>4.1133534020269522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>49</v>
+      </c>
+      <c r="G63">
+        <v>1.5201224489795899</v>
+      </c>
+      <c r="H63">
+        <v>0.30227916406396399</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1.5201224489795899</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1.3119259259259199</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1.6029111111111101</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.18687272727271</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="8"/>
+        <v>13.541388671565475</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="8">
+        <f t="shared" si="9"/>
+        <v>10.396515439156175</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="8">
+        <f t="shared" si="10"/>
+        <v>21.090061416116789</v>
+      </c>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9">
+        <f t="shared" si="11"/>
+        <v>7.0774781844517189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>58</v>
+      </c>
+      <c r="G64">
+        <v>1.2846206896551799</v>
+      </c>
+      <c r="H64">
+        <v>0.31406133201365199</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0.73305263157895595</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.73513793103448699</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.771120689655173</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0.75740350877192897</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="8"/>
+        <v>2.4446455228090151</v>
+      </c>
+      <c r="R64" s="6">
+        <f t="shared" si="9"/>
+        <v>0.20086348780036958</v>
+      </c>
+      <c r="T64" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2691341924825819</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="11"/>
+        <v>2.1097090620443315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>54</v>
+      </c>
+      <c r="G65">
+        <v>1.3119259259259199</v>
+      </c>
+      <c r="H65">
+        <v>0.296542647150984</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.888177166037738</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.83959999999999801</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.82222641509434102</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.82157142857142995</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="8"/>
+        <v>3.7160166897712155</v>
+      </c>
+      <c r="R65" s="6">
+        <f t="shared" si="9"/>
+        <v>3.976119628306348</v>
+      </c>
+      <c r="T65" s="6">
+        <f t="shared" si="10"/>
+        <v>5.6350653302157154E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="11"/>
+        <v>1.5348355856577229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>44</v>
+      </c>
+      <c r="G66">
+        <v>1.5799545454545501</v>
+      </c>
+      <c r="H66">
+        <v>0.29628293788402299</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.94977777777777195</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.89850000000000496</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3">
+        <v>0.87269642857142704</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="8"/>
+        <v>4.3259475583482487</v>
+      </c>
+      <c r="R66" s="6">
+        <f t="shared" si="9"/>
+        <v>3.9235297666599318</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="V66">
+        <f t="shared" si="11"/>
+        <v>2.0602887451275196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>45</v>
+      </c>
+      <c r="G67">
+        <v>1.6029111111111101</v>
+      </c>
+      <c r="H67">
+        <v>0.29996437835654799</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0.69206779661018003</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.70675862068964801</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.67750000000000898</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0.66179310344827802</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="8"/>
+        <v>2.8192606393868078</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" si="9"/>
+        <v>1.4852423716535861</v>
+      </c>
+      <c r="T67" s="6">
+        <f t="shared" ref="T67:T68" si="12">(_xlfn.STDEV.S(N67:O67)/AVERAGE(N67:O67)*100)</f>
+        <v>1.6585545067810334</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="11"/>
+        <v>4.6465795336981968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>56</v>
+      </c>
+      <c r="G68">
+        <v>1.1948035714285701</v>
+      </c>
+      <c r="H68">
+        <v>0.28888440089059803</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.69578571428571201</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.72588135593219305</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.70460714285715798</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0.70405172413793105</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="8"/>
+        <v>1.8159790962210511</v>
+      </c>
+      <c r="R68" s="6">
+        <f t="shared" si="9"/>
+        <v>2.9937856391546314</v>
+      </c>
+      <c r="T68" s="6">
+        <f t="shared" si="12"/>
+        <v>5.5760887460438419E-2</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="11"/>
+        <v>2.158965463162954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>55</v>
+      </c>
+      <c r="G69">
+        <v>1.18687272727271</v>
+      </c>
+      <c r="H69">
+        <v>0.35882648517723498</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.8811393631111849</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.85251368264156557</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.85263611442034981</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.81811922873938536</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>58</v>
+      </c>
+      <c r="G70">
+        <v>0.73589655172414603</v>
+      </c>
+      <c r="H70">
+        <v>0.11344396401024399</v>
+      </c>
+      <c r="P70" s="6">
+        <f>AVERAGE(P55:P68)</f>
+        <v>4.1763490601550384</v>
+      </c>
+      <c r="R70" s="6">
+        <f>AVERAGE(R55:R68)</f>
+        <v>3.2952377014975376</v>
+      </c>
+      <c r="T70" s="6">
+        <f>AVERAGE(T55:T68)</f>
+        <v>3.1373256744057465</v>
+      </c>
+      <c r="V70" s="6">
+        <f>AVERAGE(V55:V68)</f>
+        <v>3.1420128634585822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>57</v>
+      </c>
+      <c r="G71">
+        <v>0.73305263157895595</v>
+      </c>
+      <c r="H71">
+        <v>0.13934917871670899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>59</v>
+      </c>
+      <c r="G72">
+        <v>0.76044067796609005</v>
+      </c>
+      <c r="H72">
+        <v>0.14438994988266601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>58</v>
+      </c>
+      <c r="G73">
+        <v>0.73513793103448699</v>
+      </c>
+      <c r="H73">
+        <v>9.5181350133248993E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>59</v>
+      </c>
+      <c r="G74">
+        <v>0.75813559322034896</v>
+      </c>
+      <c r="H74">
+        <v>0.121386310883486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>58</v>
+      </c>
+      <c r="G75">
+        <v>0.771120689655173</v>
+      </c>
+      <c r="H75">
+        <v>0.14837684095859499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>60</v>
+      </c>
+      <c r="G76">
+        <v>0.73308333333333697</v>
+      </c>
+      <c r="H76">
+        <v>9.9788639628311096E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>57</v>
+      </c>
+      <c r="G77">
+        <v>0.75740350877192897</v>
+      </c>
+      <c r="H77">
+        <v>0.14403965967363599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>57</v>
+      </c>
+      <c r="G78">
+        <v>0.87296491228068795</v>
+      </c>
+      <c r="H78">
+        <v>0.15058694272178599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>55</v>
+      </c>
+      <c r="G79">
+        <v>0.89578181818181901</v>
+      </c>
+      <c r="H79">
+        <v>0.168896493715012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>59</v>
+      </c>
+      <c r="G80">
+        <v>0.78903389830509396</v>
+      </c>
+      <c r="H80">
+        <v>0.12867761990950899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>59</v>
+      </c>
+      <c r="G81">
+        <v>0.834440677966102</v>
+      </c>
+      <c r="H81">
+        <v>0.13674520368395701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>57</v>
+      </c>
+      <c r="G82">
+        <v>0.81354385964912201</v>
+      </c>
+      <c r="H82">
+        <v>0.121724670315453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>58</v>
+      </c>
+      <c r="G83">
+        <v>0.86391379310345495</v>
+      </c>
+      <c r="H83">
+        <v>0.129043075153257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>59</v>
+      </c>
+      <c r="G84">
+        <v>0.80542372881356405</v>
+      </c>
+      <c r="H84">
+        <v>0.16370075762783101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>58</v>
+      </c>
+      <c r="G85">
+        <v>0.83960344827585698</v>
+      </c>
+      <c r="H85">
+        <v>0.11423167282159601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>53</v>
+      </c>
+      <c r="G86">
+        <v>0.82925457924528001</v>
+      </c>
+      <c r="H86">
+        <v>9.83848534226201E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>53</v>
+      </c>
+      <c r="G87">
+        <v>0.888177166037738</v>
+      </c>
+      <c r="H87">
+        <v>0.17742226224489199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+      <c r="G88">
+        <v>0.79686666666667205</v>
+      </c>
+      <c r="H88">
+        <v>0.112917619088283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>55</v>
+      </c>
+      <c r="G89">
+        <v>0.83959999999999801</v>
+      </c>
+      <c r="H89">
+        <v>0.13853955178001201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>58</v>
+      </c>
+      <c r="G90">
+        <v>0.81574137931034396</v>
+      </c>
+      <c r="H90">
+        <v>0.16715499271947401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>53</v>
+      </c>
+      <c r="G91">
+        <v>0.82222641509434102</v>
+      </c>
+      <c r="H91">
+        <v>0.124399115985821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>0.78641666666666799</v>
+      </c>
+      <c r="H92">
+        <v>0.14498033667569801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>56</v>
+      </c>
+      <c r="G93">
+        <v>0.82157142857142995</v>
+      </c>
+      <c r="H93">
+        <v>0.15479157331337701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>58</v>
+      </c>
+      <c r="G94">
+        <v>0.87032758620690298</v>
+      </c>
+      <c r="H94">
+        <v>0.181911621874524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>54</v>
+      </c>
+      <c r="G95">
+        <v>0.94977777777777195</v>
+      </c>
+      <c r="H95">
+        <v>0.18014477057295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>59</v>
+      </c>
+      <c r="G96">
+        <v>0.85522033898305205</v>
+      </c>
+      <c r="H96">
+        <v>0.15170809854916101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>58</v>
+      </c>
+      <c r="G97">
+        <v>0.89850000000000496</v>
+      </c>
+      <c r="H97">
+        <v>0.153875348275862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>59</v>
+      </c>
+      <c r="G98">
+        <v>0.81189830508473104</v>
+      </c>
+      <c r="H98">
+        <v>0.157660120568793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>56</v>
+      </c>
+      <c r="G99">
+        <v>0.87269642857142704</v>
+      </c>
+      <c r="H99">
+        <v>0.17575281398423001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>59</v>
+      </c>
+      <c r="G100">
+        <v>0.68355932203389602</v>
+      </c>
+      <c r="H100">
+        <v>0.10667599529390299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101">
+        <v>59</v>
+      </c>
+      <c r="G101">
+        <v>0.69206779661018003</v>
+      </c>
+      <c r="H101">
+        <v>0.14152176199254901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>59</v>
+      </c>
+      <c r="G102">
+        <v>0.69879661016948402</v>
+      </c>
+      <c r="H102">
+        <v>0.118747744756962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103">
+        <v>58</v>
+      </c>
+      <c r="G103">
+        <v>0.70675862068964801</v>
+      </c>
+      <c r="H103">
+        <v>0.103320708398792</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>59</v>
+      </c>
+      <c r="G104">
+        <v>0.65462711864407397</v>
+      </c>
+      <c r="H104">
+        <v>6.9464676785154E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <v>58</v>
+      </c>
+      <c r="G105">
+        <v>0.67750000000000898</v>
+      </c>
+      <c r="H105">
+        <v>0.101009857083711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>59</v>
+      </c>
+      <c r="G106">
+        <v>0.68786440677966199</v>
+      </c>
+      <c r="H106">
+        <v>8.0487406945413301E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>58</v>
+      </c>
+      <c r="G107">
+        <v>0.66179310344827802</v>
+      </c>
+      <c r="H107">
+        <v>7.3431614832216996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>59</v>
+      </c>
+      <c r="G108">
+        <v>0.70038983050846904</v>
+      </c>
+      <c r="H108">
+        <v>0.121701162682397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>56</v>
+      </c>
+      <c r="G109">
+        <v>0.69578571428571201</v>
+      </c>
+      <c r="H109">
+        <v>0.16710690255975699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>59</v>
+      </c>
+      <c r="G110">
+        <v>0.72257627118643897</v>
+      </c>
+      <c r="H110">
+        <v>0.145659167992745</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>59</v>
+      </c>
+      <c r="G111">
+        <v>0.72588135593219305</v>
+      </c>
+      <c r="H111">
+        <v>0.12315438653279299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>60</v>
+      </c>
+      <c r="G112">
+        <v>0.69710000000000405</v>
+      </c>
+      <c r="H112">
+        <v>0.15655471778588601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>56</v>
+      </c>
+      <c r="G113">
+        <v>0.70460714285715798</v>
+      </c>
+      <c r="H113">
+        <v>0.111983550508175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>59</v>
+      </c>
+      <c r="G114">
+        <v>0.71198305084746305</v>
+      </c>
+      <c r="H114">
+        <v>0.156165086336638</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>58</v>
+      </c>
+      <c r="G115">
+        <v>0.70405172413793105</v>
+      </c>
+      <c r="H115">
+        <v>0.103388794807331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+</worksheet>
 </file>